--- a/ig/sd-add-ms/StructureDefinition-ror-confidentiality-level.xlsx
+++ b/ig/sd-add-ms/StructureDefinition-ror-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:27:55+00:00</t>
+    <t>2024-01-24T16:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ms/StructureDefinition-ror-confidentiality-level.xlsx
+++ b/ig/sd-add-ms/StructureDefinition-ror-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:44:18+00:00</t>
+    <t>2024-01-24T16:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
